--- a/excel/shop.xlsx
+++ b/excel/shop.xlsx
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -136,6 +136,24 @@
       <left style="thin">
         <color indexed="11"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
@@ -147,13 +165,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,11 +209,29 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1296,7 +1354,9 @@
     <col min="1" max="1" width="9.57812" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1309,303 +1369,372 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="7">
         <v>5</v>
       </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>29</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>30</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>31</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>32</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>33</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>34</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <v>35</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>36</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>37</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>38</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>39</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="10">
         <v>40</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10">
         <v>3</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="10">
         <v>41</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="6">
+      <c r="A16" s="10">
         <v>42</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="10">
         <v>43</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="10">
         <v>44</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="10">
         <v>45</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="10">
         <v>46</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="10">
         <v>2</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="6">
+      <c r="A21" s="10">
         <v>47</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="10">
         <v>48</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="10">
         <v>2</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <v>49</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="10">
         <v>50</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="10">
         <v>2</v>
       </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="10">
         <v>51</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="10">
         <v>52</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="10">
         <v>2</v>
       </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <v>53</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="6">
+      <c r="A28" s="10">
         <v>54</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="10">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="10">
+        <v>1001</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/shop.xlsx
+++ b/excel/shop.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId4"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>物品ID</t>
   </si>
@@ -35,32 +38,171 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,8 +221,181 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -133,30 +448,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
@@ -169,98 +586,297 @@
       <left style="thin">
         <color indexed="11"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -386,7 +1002,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -395,7 +1011,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -404,7 +1020,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,7 +1094,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -486,7 +1102,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -505,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -535,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -561,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -587,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -613,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -639,7 +1255,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -665,7 +1281,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +1307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +1333,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +1359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,9 +1372,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -773,7 +1395,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -781,7 +1403,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -800,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +1448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +1474,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +1552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,9 +1669,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1063,7 +1691,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1082,7 +1710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1740,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1766,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1792,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,7 +1896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,412 +1961,298 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.57812" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
+    </row>
+    <row r="2" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="10">
+    </row>
+    <row r="3" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A3" s="7">
         <v>29</v>
       </c>
-      <c r="B3" s="10">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="10">
+      <c r="B3" s="6">
+        <v>400</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A4" s="7">
         <v>30</v>
       </c>
-      <c r="B4" s="10">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="10">
+      <c r="B4" s="6">
+        <v>600</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A5" s="7">
         <v>31</v>
       </c>
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="10">
+      <c r="B5" s="6">
+        <v>600</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A6" s="7">
         <v>32</v>
       </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="10">
+      <c r="B6" s="6">
+        <v>400</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A7" s="7">
         <v>33</v>
       </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="10">
+      <c r="B7" s="6">
+        <v>400</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A8" s="7">
         <v>34</v>
       </c>
-      <c r="B8" s="10">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="10">
+      <c r="B8" s="6">
+        <v>500</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A9" s="7">
         <v>35</v>
       </c>
-      <c r="B9" s="10">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="10">
+      <c r="B9" s="6">
+        <v>500</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A10" s="7">
         <v>36</v>
       </c>
-      <c r="B10" s="10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="10">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A11" s="7">
         <v>37</v>
       </c>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="10">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A12" s="7">
         <v>38</v>
       </c>
-      <c r="B12" s="10">
-        <v>3</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="10">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A13" s="7">
         <v>39</v>
       </c>
-      <c r="B13" s="10">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="10">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A14" s="7">
         <v>40</v>
       </c>
-      <c r="B14" s="10">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="10">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A15" s="7">
         <v>41</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="10">
+      <c r="B15" s="6">
+        <v>800</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A16" s="7">
         <v>42</v>
       </c>
-      <c r="B16" s="10">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="10">
+      <c r="B16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A17" s="7">
         <v>43</v>
       </c>
-      <c r="B17" s="10">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="10">
+      <c r="B17" s="6">
+        <v>800</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A18" s="7">
         <v>44</v>
       </c>
-      <c r="B18" s="10">
-        <v>2</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="10">
+      <c r="B18" s="6">
+        <v>800</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A19" s="7">
         <v>45</v>
       </c>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="10">
+      <c r="B19" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A20" s="7">
         <v>46</v>
       </c>
-      <c r="B20" s="10">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="10">
+      <c r="B20" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A21" s="7">
         <v>47</v>
       </c>
-      <c r="B21" s="10">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="10">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A22" s="7">
         <v>48</v>
       </c>
-      <c r="B22" s="10">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="10">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A23" s="7">
         <v>49</v>
       </c>
-      <c r="B23" s="10">
-        <v>2</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="10">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A24" s="7">
         <v>50</v>
       </c>
-      <c r="B24" s="10">
-        <v>2</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="10">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A25" s="7">
         <v>51</v>
       </c>
-      <c r="B25" s="10">
-        <v>2</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="10">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A26" s="7">
         <v>52</v>
       </c>
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-      <c r="C26" s="10">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="10">
+      <c r="B26" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A27" s="7">
         <v>53</v>
       </c>
-      <c r="B27" s="10">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="10">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.95" customHeight="1">
+      <c r="A28" s="7">
         <v>54</v>
       </c>
-      <c r="B28" s="10">
-        <v>2</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="10">
-        <v>1001</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
